--- a/attendance_data.xlsx
+++ b/attendance_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -38,24 +38,6 @@
     <t>Logout-time</t>
   </si>
   <si>
-    <t>kelly</t>
-  </si>
-  <si>
-    <t>kamariza@gmail.com</t>
-  </si>
-  <si>
-    <t>PROGRAMMER</t>
-  </si>
-  <si>
-    <t>2023-08-17</t>
-  </si>
-  <si>
-    <t>11:49:07</t>
-  </si>
-  <si>
-    <t>11:49:12</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pfique </t>
   </si>
   <si>
@@ -65,10 +47,13 @@
     <t>TESTER</t>
   </si>
   <si>
-    <t>11:57:43</t>
-  </si>
-  <si>
-    <t>11:57:47</t>
+    <t>2023-08-19</t>
+  </si>
+  <si>
+    <t>19:13:57</t>
+  </si>
+  <si>
+    <t>19:15:26</t>
   </si>
 </sst>
 </file>
@@ -408,7 +393,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,121 +445,6 @@
       </c>
       <c r="G2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/attendance_data.xlsx
+++ b/attendance_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -38,22 +38,52 @@
     <t>Logout-time</t>
   </si>
   <si>
-    <t xml:space="preserve">Pfique </t>
-  </si>
-  <si>
-    <t>pacifiquecyubahiro21@gmail.com</t>
-  </si>
-  <si>
-    <t>TESTER</t>
+    <t>kellen</t>
+  </si>
+  <si>
+    <t>kellen@gmail.com</t>
+  </si>
+  <si>
+    <t>PROGRAMMER</t>
   </si>
   <si>
     <t>2023-08-19</t>
   </si>
   <si>
-    <t>19:13:57</t>
-  </si>
-  <si>
-    <t>19:15:26</t>
+    <t>19:31:27</t>
+  </si>
+  <si>
+    <t>22:40:46</t>
+  </si>
+  <si>
+    <t>2023-08-20</t>
+  </si>
+  <si>
+    <t>23:46:37</t>
+  </si>
+  <si>
+    <t>23:46:41</t>
+  </si>
+  <si>
+    <t>2023-08-21</t>
+  </si>
+  <si>
+    <t>08:18:03</t>
+  </si>
+  <si>
+    <t>08:18:07</t>
+  </si>
+  <si>
+    <t>kelly</t>
+  </si>
+  <si>
+    <t>kamariza@gmail.com</t>
+  </si>
+  <si>
+    <t>08:41:45</t>
+  </si>
+  <si>
+    <t>08:41:49</t>
   </si>
 </sst>
 </file>
@@ -393,7 +423,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,7 +456,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -445,6 +475,75 @@
       </c>
       <c r="G2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>113</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/attendance_data.xlsx
+++ b/attendance_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -38,52 +38,76 @@
     <t>Logout-time</t>
   </si>
   <si>
-    <t>kellen</t>
-  </si>
-  <si>
-    <t>kellen@gmail.com</t>
-  </si>
-  <si>
-    <t>PROGRAMMER</t>
-  </si>
-  <si>
-    <t>2023-08-19</t>
-  </si>
-  <si>
-    <t>19:31:27</t>
-  </si>
-  <si>
-    <t>22:40:46</t>
-  </si>
-  <si>
-    <t>2023-08-20</t>
-  </si>
-  <si>
-    <t>23:46:37</t>
-  </si>
-  <si>
-    <t>23:46:41</t>
-  </si>
-  <si>
-    <t>2023-08-21</t>
-  </si>
-  <si>
-    <t>08:18:03</t>
-  </si>
-  <si>
-    <t>08:18:07</t>
-  </si>
-  <si>
-    <t>kelly</t>
+    <t>keza</t>
   </si>
   <si>
     <t>kamariza@gmail.com</t>
   </si>
   <si>
-    <t>08:41:45</t>
-  </si>
-  <si>
-    <t>08:41:49</t>
+    <t>accountant</t>
+  </si>
+  <si>
+    <t>2023-09-06</t>
+  </si>
+  <si>
+    <t>20:22:29</t>
+  </si>
+  <si>
+    <t>20:22:37</t>
+  </si>
+  <si>
+    <t>paccy</t>
+  </si>
+  <si>
+    <t>pacifiquecyubahiro21@gmail.com</t>
+  </si>
+  <si>
+    <t>cleaner</t>
+  </si>
+  <si>
+    <t>20:29:34</t>
+  </si>
+  <si>
+    <t>20:29:41</t>
+  </si>
+  <si>
+    <t>2023-09-08</t>
+  </si>
+  <si>
+    <t>19:49:31</t>
+  </si>
+  <si>
+    <t>19:50:30</t>
+  </si>
+  <si>
+    <t>Pfique</t>
+  </si>
+  <si>
+    <t>paccymaker@gmail.com</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>20:29:15</t>
+  </si>
+  <si>
+    <t>20:29:23</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Ben@gmail.com</t>
+  </si>
+  <si>
+    <t>finance</t>
+  </si>
+  <si>
+    <t>20:29:58</t>
+  </si>
+  <si>
+    <t>20:30:02</t>
   </si>
 </sst>
 </file>
@@ -423,7 +447,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +480,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -479,71 +503,94 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>127</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/attendance_data.xlsx
+++ b/attendance_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -38,61 +38,40 @@
     <t>Logout-time</t>
   </si>
   <si>
-    <t>keza</t>
-  </si>
-  <si>
-    <t>kamariza@gmail.com</t>
+    <t xml:space="preserve">Pfique </t>
+  </si>
+  <si>
+    <t>paccymaker@gmail.com</t>
   </si>
   <si>
     <t>accountant</t>
   </si>
   <si>
-    <t>2023-09-06</t>
-  </si>
-  <si>
-    <t>20:22:29</t>
-  </si>
-  <si>
-    <t>20:22:37</t>
-  </si>
-  <si>
-    <t>paccy</t>
-  </si>
-  <si>
-    <t>pacifiquecyubahiro21@gmail.com</t>
-  </si>
-  <si>
-    <t>cleaner</t>
-  </si>
-  <si>
-    <t>20:29:34</t>
-  </si>
-  <si>
-    <t>20:29:41</t>
-  </si>
-  <si>
-    <t>2023-09-08</t>
-  </si>
-  <si>
-    <t>19:49:31</t>
-  </si>
-  <si>
-    <t>19:50:30</t>
-  </si>
-  <si>
-    <t>Pfique</t>
-  </si>
-  <si>
-    <t>paccymaker@gmail.com</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>20:29:15</t>
-  </si>
-  <si>
-    <t>20:29:23</t>
+    <t>2023-09-14</t>
+  </si>
+  <si>
+    <t>16:17:03</t>
+  </si>
+  <si>
+    <t>12:20:06</t>
+  </si>
+  <si>
+    <t>2023-09-15</t>
+  </si>
+  <si>
+    <t>23:56:23</t>
+  </si>
+  <si>
+    <t>09:22:17</t>
+  </si>
+  <si>
+    <t>2023-09-18</t>
+  </si>
+  <si>
+    <t>23:09:40</t>
+  </si>
+  <si>
+    <t>23:09:46</t>
   </si>
   <si>
     <t>Rwanda</t>
@@ -101,13 +80,16 @@
     <t>Ben@gmail.com</t>
   </si>
   <si>
-    <t>finance</t>
-  </si>
-  <si>
-    <t>20:29:58</t>
-  </si>
-  <si>
-    <t>20:30:02</t>
+    <t>butcher_man</t>
+  </si>
+  <si>
+    <t>2023-09-10</t>
+  </si>
+  <si>
+    <t>17:12:39</t>
+  </si>
+  <si>
+    <t>17:12:44</t>
   </si>
 </sst>
 </file>
@@ -447,7 +429,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,7 +462,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -503,94 +485,71 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
         <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>127</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/attendance_data.xlsx
+++ b/attendance_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>ID</t>
   </si>
@@ -36,60 +36,6 @@
   </si>
   <si>
     <t>Logout-time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pfique </t>
-  </si>
-  <si>
-    <t>paccymaker@gmail.com</t>
-  </si>
-  <si>
-    <t>accountant</t>
-  </si>
-  <si>
-    <t>2023-09-14</t>
-  </si>
-  <si>
-    <t>16:17:03</t>
-  </si>
-  <si>
-    <t>12:20:06</t>
-  </si>
-  <si>
-    <t>2023-09-15</t>
-  </si>
-  <si>
-    <t>23:56:23</t>
-  </si>
-  <si>
-    <t>09:22:17</t>
-  </si>
-  <si>
-    <t>2023-09-18</t>
-  </si>
-  <si>
-    <t>23:09:40</t>
-  </si>
-  <si>
-    <t>23:09:46</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Ben@gmail.com</t>
-  </si>
-  <si>
-    <t>butcher_man</t>
-  </si>
-  <si>
-    <t>2023-09-10</t>
-  </si>
-  <si>
-    <t>17:12:39</t>
-  </si>
-  <si>
-    <t>17:12:44</t>
   </si>
 </sst>
 </file>
@@ -429,7 +375,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,98 +404,6 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>129</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>130</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>131</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>132</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
